--- a/documents/Test_planner.xlsx
+++ b/documents/Test_planner.xlsx
@@ -12,17 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+  <si>
+    <t>Test Planner and Tracker</t>
+  </si>
   <si>
     <t>Test plan Instructions</t>
   </si>
   <si>
+    <t>Team 5</t>
+  </si>
+  <si>
     <t>It is particularly important that you create a substantial set of Acceptance</t>
   </si>
   <si>
-    <t>Test Planner and Tracker</t>
-  </si>
-  <si>
     <t>Tests. These are tests based on the requirements document.  Each acceptance</t>
   </si>
   <si>
@@ -48,30 +51,27 @@
   </si>
   <si>
     <t>specifies how the user knows whether the test succeeded or failed. The</t>
-  </si>
-  <si>
-    <t>reason for defining acceptance tests early in the life-cycle is to</t>
-  </si>
-  <si>
-    <t>Swastik Murawat</t>
-  </si>
-  <si>
-    <t>facilitate "test-driven development".  Developers can look at the acceptance</t>
-  </si>
-  <si>
-    <t>tests that their module must satisfy, and thereby know exactly what behavior</t>
-  </si>
-  <si>
-    <t>is expected from their module. Make sure to update these if/when</t>
-  </si>
-  <si>
-    <t>requirements change. Make sure to follow the suggested format.</t>
   </si>
   <si>
     <t>Test 
 No. ID</t>
   </si>
   <si>
+    <t>reason for defining acceptance tests early in the life-cycle is to</t>
+  </si>
+  <si>
+    <t>facilitate "test-driven development".  Developers can look at the acceptance</t>
+  </si>
+  <si>
+    <t>tests that their module must satisfy, and thereby know exactly what behavior</t>
+  </si>
+  <si>
+    <t>is expected from their module. Make sure to update these if/when</t>
+  </si>
+  <si>
+    <t>requirements change. Make sure to follow the suggested format.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Related  
 Use case </t>
   </si>
@@ -135,7 +135,7 @@
     <t>Connect to Lan of 4th floor to connect to bacnet</t>
   </si>
   <si>
-    <t>Desired outcome</t>
+    <t>Connection to BACNET should be established.</t>
   </si>
   <si>
     <t>not started</t>
@@ -151,10 +151,10 @@
     <t>on same network as the server</t>
   </si>
   <si>
-    <t>connect to either lan or wifi network</t>
-  </si>
-  <si>
-    <t>able to switch it on/off</t>
+    <t>Connect to either lan or wifi network</t>
+  </si>
+  <si>
+    <t>AC temperature and state should be able to be controlled remotely.</t>
   </si>
   <si>
     <t>Login/Logout</t>
@@ -163,10 +163,10 @@
     <t xml:space="preserve">Database and backend working </t>
   </si>
   <si>
-    <t>type in the credentials</t>
-  </si>
-  <si>
-    <t>if login/logout successfull</t>
+    <t>Type in the credentials</t>
+  </si>
+  <si>
+    <t>successful Login/logout.</t>
   </si>
   <si>
     <t xml:space="preserve">not completed yet
@@ -180,18 +180,17 @@
 </t>
   </si>
   <si>
-    <t>go to view page and check if data is visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirming if it is already prepared
-</t>
+    <t>Go to view page and check if data is visible</t>
+  </si>
+  <si>
+    <t>Required data should be visible on app.</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>bacnet required to gather data</t>
+    <t>Data gathering was required for BACNET</t>
   </si>
   <si>
     <t xml:space="preserve">Adjusting Temp
@@ -204,7 +203,7 @@
     <t>Change Temp from UI</t>
   </si>
   <si>
-    <t>Expected change in temp</t>
+    <t>AC temperature should be changed.</t>
   </si>
   <si>
     <t>bacnet required to adjust aTemp</t>
@@ -216,10 +215,10 @@
     <t>frontend needs to be running</t>
   </si>
   <si>
-    <t>Checking if the UI is responsive</t>
-  </si>
-  <si>
-    <t>UI should be responsive</t>
+    <t>Check if the UI is responsive</t>
+  </si>
+  <si>
+    <t>UI should be responsive.</t>
   </si>
   <si>
     <t>View</t>
@@ -231,7 +230,7 @@
     <t xml:space="preserve">1. Go to the home page of the dashboard 2. Change graph plot    </t>
   </si>
   <si>
-    <t>Graph of AC data should be rendered</t>
+    <t>Graph of AC data should be rendered.</t>
   </si>
   <si>
     <t xml:space="preserve">Required establishing hobolink connection </t>
@@ -243,10 +242,10 @@
     <t>hobolink script must be run and connection must be present</t>
   </si>
   <si>
-    <t xml:space="preserve">1. run the hobolink script </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobolink data should be fetched </t>
+    <t xml:space="preserve">Run the hobolink script </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobolink data should be fetched. </t>
   </si>
   <si>
     <t>AC control through map</t>
@@ -258,7 +257,10 @@
     <t>Select AC through map, and set the temperature</t>
   </si>
   <si>
-    <t>AC should be set to assigned temperature</t>
+    <t>AC should be set to assigned temperature.</t>
+  </si>
+  <si>
+    <t>Mapping was partially complete</t>
   </si>
   <si>
     <t>Request AC control to admin</t>
@@ -270,7 +272,7 @@
     <t>1. Select an AC through the map (for which control permission is not there)   2. Request permission from Admin</t>
   </si>
   <si>
-    <t>Admin should get alert from user</t>
+    <t>Admin should get alert from user.</t>
   </si>
   <si>
     <t>Give AC control access to space user</t>
@@ -279,10 +281,10 @@
     <t>app should be running, and admin should be logged in</t>
   </si>
   <si>
-    <t>1. Grant access request to user</t>
-  </si>
-  <si>
-    <t>Access should be granted to space user</t>
+    <t>Grant access request to user</t>
+  </si>
+  <si>
+    <t>Access should be granted to space user.</t>
   </si>
   <si>
     <t>social media authentication</t>
@@ -291,10 +293,10 @@
     <t xml:space="preserve">app should be running </t>
   </si>
   <si>
-    <t>1. login using social media account</t>
-  </si>
-  <si>
-    <t>User should be logged in and new user should be created in the database</t>
+    <t>Login using social media account</t>
+  </si>
+  <si>
+    <t>User should be logged in and new user should be created in the database.</t>
   </si>
   <si>
     <t>email alert</t>
@@ -303,7 +305,10 @@
     <t>app should be running, email should be linked to app account</t>
   </si>
   <si>
-    <t xml:space="preserve">1. login using email required   2. </t>
+    <t xml:space="preserve">1. login using email     2. send email alert to user through app </t>
+  </si>
+  <si>
+    <t>User should receive a mail from the app about overuse of AC.</t>
   </si>
 </sst>
 </file>
@@ -318,18 +323,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="16.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -338,6 +338,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
     </font>
     <font>
       <b/>
@@ -352,11 +357,11 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -438,18 +443,18 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -467,54 +472,54 @@
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -756,19 +761,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>19</v>
@@ -839,1136 +842,666 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1.0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="20">
-        <f t="shared" ref="A4:A32" si="1">A3+1</f>
+      <c r="A4" s="19">
+        <f t="shared" ref="A4:A15" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="21" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="21" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="18"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="21" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="21" t="s">
+      <c r="J14" s="26"/>
+      <c r="K14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="21" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="21" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21" t="s">
+      <c r="D15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21" t="s">
+      <c r="N15" s="21"/>
+      <c r="O15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="20">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="20">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="20">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="20">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="20">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="20">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="20">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="20">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="20">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="20">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="20">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="20">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="20">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="20">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="20">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="28"/>
@@ -6725,91 +6258,23 @@
       <c r="B983" s="28"/>
       <c r="C983" s="28"/>
     </row>
-    <row r="984" ht="12.0" customHeight="1">
-      <c r="A984" s="28"/>
-      <c r="B984" s="28"/>
-      <c r="C984" s="28"/>
-    </row>
-    <row r="985" ht="12.0" customHeight="1">
-      <c r="A985" s="28"/>
-      <c r="B985" s="28"/>
-      <c r="C985" s="28"/>
-    </row>
-    <row r="986" ht="12.0" customHeight="1">
-      <c r="A986" s="28"/>
-      <c r="B986" s="28"/>
-      <c r="C986" s="28"/>
-    </row>
-    <row r="987" ht="12.0" customHeight="1">
-      <c r="A987" s="28"/>
-      <c r="B987" s="28"/>
-      <c r="C987" s="28"/>
-    </row>
-    <row r="988" ht="12.0" customHeight="1">
-      <c r="A988" s="28"/>
-      <c r="B988" s="28"/>
-      <c r="C988" s="28"/>
-    </row>
-    <row r="989" ht="12.0" customHeight="1">
-      <c r="A989" s="28"/>
-      <c r="B989" s="28"/>
-      <c r="C989" s="28"/>
-    </row>
-    <row r="990" ht="12.0" customHeight="1">
-      <c r="A990" s="28"/>
-      <c r="B990" s="28"/>
-      <c r="C990" s="28"/>
-    </row>
-    <row r="991" ht="12.0" customHeight="1">
-      <c r="A991" s="28"/>
-      <c r="B991" s="28"/>
-      <c r="C991" s="28"/>
-    </row>
-    <row r="992" ht="12.0" customHeight="1">
-      <c r="A992" s="28"/>
-      <c r="B992" s="28"/>
-      <c r="C992" s="28"/>
-    </row>
-    <row r="993" ht="12.0" customHeight="1">
-      <c r="A993" s="28"/>
-      <c r="B993" s="28"/>
-      <c r="C993" s="28"/>
-    </row>
-    <row r="994" ht="12.0" customHeight="1">
-      <c r="A994" s="28"/>
-      <c r="B994" s="28"/>
-      <c r="C994" s="28"/>
-    </row>
-    <row r="995" ht="12.0" customHeight="1">
-      <c r="A995" s="28"/>
-      <c r="B995" s="28"/>
-      <c r="C995" s="28"/>
-    </row>
-    <row r="996" ht="12.0" customHeight="1">
-      <c r="A996" s="28"/>
-      <c r="B996" s="28"/>
-      <c r="C996" s="28"/>
-    </row>
-    <row r="997" ht="12.0" customHeight="1">
-      <c r="A997" s="28"/>
-      <c r="B997" s="28"/>
-      <c r="C997" s="28"/>
-    </row>
-    <row r="998" ht="12.0" customHeight="1">
-      <c r="A998" s="28"/>
-      <c r="B998" s="28"/>
-      <c r="C998" s="28"/>
-    </row>
-    <row r="999" ht="12.0" customHeight="1">
-      <c r="A999" s="28"/>
-      <c r="B999" s="28"/>
-      <c r="C999" s="28"/>
-    </row>
-    <row r="1000" ht="12.0" customHeight="1">
-      <c r="A1000" s="28"/>
-      <c r="B1000" s="28"/>
-      <c r="C1000" s="28"/>
-    </row>
+    <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
+    <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -6844,84 +6309,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1"/>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1"/>
